--- a/datasets/player-stats.xlsx
+++ b/datasets/player-stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11b2a9a23286e0ef/Documents/MS Data Analysis and Visualization/Capstone/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclai\Documents\GitHub\DATA-70500-working-with-data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F17DC076B19541392B1EF0A3EF9E65EA2B59D2F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{592C81A3-8F1C-4943-AC25-912A3639F8F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643678A4-AA96-42AD-81F2-09E5DEC6E0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>Player</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>Played-in-MLB</t>
+  </si>
+  <si>
+    <t>Martin Dihigo</t>
+  </si>
+  <si>
+    <t>Monte Irvin</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>Mule Suttles</t>
+  </si>
+  <si>
+    <t>Oscar Charleston</t>
+  </si>
+  <si>
+    <t>Pete Hill</t>
+  </si>
+  <si>
+    <t>Ray Dandridge</t>
   </si>
 </sst>
 </file>
@@ -438,20 +459,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" customWidth="1"/>
-    <col min="11" max="11" width="16.73046875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -521,7 +542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -556,7 +577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -591,7 +612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -626,7 +647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -661,7 +682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -696,7 +717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -731,7 +752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -766,7 +787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -801,7 +822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -836,7 +857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -871,7 +892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -906,7 +927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -938,6 +959,216 @@
         <v>18</v>
       </c>
       <c r="K14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>1756</v>
+      </c>
+      <c r="D15">
+        <v>361</v>
+      </c>
+      <c r="E15">
+        <v>546</v>
+      </c>
+      <c r="F15">
+        <v>85</v>
+      </c>
+      <c r="G15">
+        <v>385</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>0.311</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>1048</v>
+      </c>
+      <c r="D16">
+        <v>214</v>
+      </c>
+      <c r="E16">
+        <v>351</v>
+      </c>
+      <c r="F16">
+        <v>41</v>
+      </c>
+      <c r="G16">
+        <v>259</v>
+      </c>
+      <c r="H16">
+        <v>26</v>
+      </c>
+      <c r="I16">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>3497</v>
+      </c>
+      <c r="D17">
+        <v>768</v>
+      </c>
+      <c r="E17">
+        <v>1177</v>
+      </c>
+      <c r="F17">
+        <v>191</v>
+      </c>
+      <c r="G17">
+        <v>933</v>
+      </c>
+      <c r="H17">
+        <v>92</v>
+      </c>
+      <c r="I17">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>5117</v>
+      </c>
+      <c r="D18">
+        <v>1220</v>
+      </c>
+      <c r="E18">
+        <v>1790</v>
+      </c>
+      <c r="F18">
+        <v>191</v>
+      </c>
+      <c r="G18">
+        <v>1190</v>
+      </c>
+      <c r="H18">
+        <v>300</v>
+      </c>
+      <c r="I18">
+        <v>0.35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>2564</v>
+      </c>
+      <c r="D19">
+        <v>530</v>
+      </c>
+      <c r="E19">
+        <v>842</v>
+      </c>
+      <c r="F19">
+        <v>48</v>
+      </c>
+      <c r="G19">
+        <v>467</v>
+      </c>
+      <c r="H19">
+        <v>81</v>
+      </c>
+      <c r="I19">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>932</v>
+      </c>
+      <c r="D20">
+        <v>144</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>150</v>
+      </c>
+      <c r="H20">
+        <v>21</v>
+      </c>
+      <c r="I20">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
         <v>21</v>
       </c>
     </row>
